--- a/Appointment Table.xlsx
+++ b/Appointment Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\my-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AMAABCA\eric-bach\schedular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB695345-4EA2-424F-9082-0478FA9F6C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DF581-6F8C-408E-9AF3-1EC273FD1ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="5325" windowWidth="27105" windowHeight="13950" activeTab="1" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
+    <workbookView xWindow="1095" yWindow="3870" windowWidth="23745" windowHeight="13845" activeTab="1" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="7" r:id="rId1"/>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -439,9 +450,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
     <t>2023-03-06T08:00:00</t>
   </si>
   <si>
@@ -451,21 +459,9 @@
     <t>booked</t>
   </si>
   <si>
-    <t>cust-001</t>
-  </si>
-  <si>
     <t>2023-03-02T14:23:45</t>
   </si>
   <si>
-    <t>status = open</t>
-  </si>
-  <si>
-    <t>Get customers upcoming appointments</t>
-  </si>
-  <si>
-    <t>Get available appointments today</t>
-  </si>
-  <si>
     <t>customer-gsi</t>
   </si>
   <si>
@@ -478,9 +474,6 @@
     <t>PK = customer, SK &gt;= today (sort desc)</t>
   </si>
   <si>
-    <t>PK = customer, SK &lt; today (sort desc)</t>
-  </si>
-  <si>
     <t>Consumer (API)</t>
   </si>
   <si>
@@ -496,15 +489,6 @@
     <t>cancelled</t>
   </si>
   <si>
-    <t>GetTodaysAppointments</t>
-  </si>
-  <si>
-    <t>Get today's appointments (all)</t>
-  </si>
-  <si>
-    <t>customer (gsi)</t>
-  </si>
-  <si>
     <t>consultation</t>
   </si>
   <si>
@@ -514,27 +498,9 @@
     <t>2023-03-08T08:00:00</t>
   </si>
   <si>
-    <t>2023-02-28T14:53:08</t>
-  </si>
-  <si>
-    <t>cust-002</t>
-  </si>
-  <si>
     <t>blocked</t>
   </si>
   <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>/calendar</t>
   </si>
   <si>
@@ -550,39 +516,9 @@
     <t>PK = appt, SK = beginsWith(2023-03-07)</t>
   </si>
   <si>
-    <t>/user/history</t>
-  </si>
-  <si>
     <t>/user/appointments</t>
   </si>
   <si>
-    <t>Get customer past appointments</t>
-  </si>
-  <si>
-    <t>GetCustomerHistory</t>
-  </si>
-  <si>
-    <t>bach</t>
-  </si>
-  <si>
-    <t>780-555-5555</t>
-  </si>
-  <si>
-    <t>nicole</t>
-  </si>
-  <si>
-    <t>sartiano</t>
-  </si>
-  <si>
-    <t>nicole@sartiano.com</t>
-  </si>
-  <si>
-    <t>eric@bach.com</t>
-  </si>
-  <si>
-    <t>780-666-6666</t>
-  </si>
-  <si>
     <t>/calendar/appointments</t>
   </si>
   <si>
@@ -605,6 +541,57 @@
   </si>
   <si>
     <t>Book appointment</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>customerId (gsi)</t>
+  </si>
+  <si>
+    <t>4ac1f1f6-6e62-4aac-925e-c6f9ac54af62</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>customerEmail</t>
+  </si>
+  <si>
+    <t>customerPhone</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>eric@test.com</t>
+  </si>
+  <si>
+    <t>Get available appointments by date</t>
+  </si>
+  <si>
+    <t>Get schedule by date</t>
+  </si>
+  <si>
+    <t>GetAppointments</t>
+  </si>
+  <si>
+    <t>status = available</t>
+  </si>
+  <si>
+    <t>Get past appointments by customer</t>
+  </si>
+  <si>
+    <t>PK = customerId, SK &lt; today (sort desc)</t>
+  </si>
+  <si>
+    <t>Get upcoming appointments by customer</t>
+  </si>
+  <si>
+    <t>GetCustomerPastAppointments</t>
+  </si>
+  <si>
+    <t>/user/appointments/history</t>
   </si>
 </sst>
 </file>
@@ -757,9 +744,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -782,8 +766,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,20 +781,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1183,18 +1170,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A27AE42-FA0B-4E9C-8C88-B2A236682FE1}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" style="2" bestFit="1" customWidth="1"/>
@@ -1210,24 +1197,24 @@
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="12"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -1237,24 +1224,24 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -1263,15 +1250,15 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>88</v>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>85</v>
@@ -1280,59 +1267,64 @@
         <v>86</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="31" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="14">
         <v>60</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="N4" s="2"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>89</v>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>85</v>
@@ -1341,58 +1333,78 @@
         <v>86</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G5" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="N5" s="2"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="8"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="31" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="2"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="14">
         <v>60</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="39">
+        <v>7805555555</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="N6" s="2"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>104</v>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="2"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>85</v>
@@ -1401,58 +1413,62 @@
         <v>86</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="N7" s="2"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="31" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="2"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D8" s="14">
         <v>60</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="N8" s="2"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="2"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>85</v>
@@ -1461,56 +1477,62 @@
         <v>86</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="N9" s="2"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="31" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="2"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="14">
         <v>60</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
-      <c r="N10" s="2"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="8"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>111</v>
+      <c r="M10" s="14"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="2"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>85</v>
@@ -1519,54 +1541,62 @@
         <v>86</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="N11" s="2"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="31" t="s">
-        <v>109</v>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="2"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="D12" s="14">
         <v>60</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="E12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
-      <c r="N12" s="2"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>110</v>
+      <c r="M12" s="14"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="2"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>85</v>
@@ -1575,74 +1605,68 @@
         <v>86</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="N13" s="2"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="31" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="2"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="14">
         <v>60</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="E14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
-      <c r="N14" s="2"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="8"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>118</v>
-      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="2"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="6"/>
@@ -1650,333 +1674,206 @@
       <c r="S15" s="6"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>129</v>
-      </c>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="N16" s="14"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="U16" s="10"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="R16" s="2"/>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="H24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="B25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="U17" s="10"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="U18" s="8"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="U19" s="8"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D21"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="R25" s="10"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>138</v>
-      </c>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>138</v>
-      </c>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>137</v>
-      </c>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R29" s="10"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="R30" s="10"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="R31" s="10"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R32" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B23:C23"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" xr:uid="{3A4AF0B4-06F4-4032-89B2-6B11829850F2}"/>
-    <hyperlink ref="F18" r:id="rId2" xr:uid="{E216B667-FD98-4755-A3AD-DA08CC93E518}"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{1A4FD1EF-5805-490F-819A-067DAE9DA836}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2011,23 +1908,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="12"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -2038,23 +1935,23 @@
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -2064,25 +1961,25 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="13"/>
@@ -2100,8 +1997,8 @@
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
@@ -2130,25 +2027,25 @@
       <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="14"/>
@@ -2164,8 +2061,8 @@
       <c r="T5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
@@ -2194,25 +2091,25 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="14"/>
@@ -2228,8 +2125,8 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
@@ -2258,37 +2155,37 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="17"/>
@@ -2300,8 +2197,8 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="14" t="s">
         <v>36</v>
       </c>
@@ -2338,37 +2235,37 @@
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="17"/>
@@ -2380,8 +2277,8 @@
       <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="14" t="s">
         <v>36</v>
       </c>
@@ -2418,37 +2315,37 @@
       <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="17"/>
@@ -2460,8 +2357,8 @@
       <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
@@ -2498,34 +2395,34 @@
       <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="25" t="s">
         <v>19</v>
       </c>
       <c r="K15" s="14"/>
@@ -2538,8 +2435,8 @@
       <c r="T15" s="8"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="14" t="s">
         <v>37</v>
       </c>
@@ -2574,43 +2471,43 @@
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="N17" s="2"/>
@@ -2620,8 +2517,8 @@
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
@@ -2663,43 +2560,43 @@
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="25" t="s">
         <v>19</v>
       </c>
       <c r="N19" s="2"/>
@@ -2709,8 +2606,8 @@
       <c r="T19" s="8"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
@@ -2756,6 +2653,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
@@ -2768,14 +2673,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Appointment Table.xlsx
+++ b/Appointment Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\schedular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AMAABCA\eric-bach\schedular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C788D-3C31-4652-885A-315D56532B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D391FC-6FB0-4BE8-BD26-8E9DDCDCB941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="4050" windowWidth="27240" windowHeight="16380" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
+    <workbookView xWindow="540" yWindow="2955" windowWidth="29760" windowHeight="18210" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="8" r:id="rId1"/>
@@ -29,12 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="143">
   <si>
     <t>updatedAt</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>Attributes</t>
@@ -381,21 +378,9 @@
     <t>CustomerId-GSI</t>
   </si>
   <si>
-    <t>PK = customerId, SK &gt;= today</t>
-  </si>
-  <si>
-    <t>status = booked or cancelled</t>
-  </si>
-  <si>
-    <t>PK = customerId, SK &lt; today</t>
-  </si>
-  <si>
     <t>Mutation</t>
   </si>
   <si>
-    <t>PK = appointmentId</t>
-  </si>
-  <si>
     <t>Create appointment</t>
   </si>
   <si>
@@ -417,15 +402,9 @@
     <t>appt#&lt;apptId&gt;</t>
   </si>
   <si>
-    <t>&lt;apptId&gt;</t>
-  </si>
-  <si>
     <t>appointmentDetails</t>
   </si>
   <si>
-    <t>{ date, time, duration }</t>
-  </si>
-  <si>
     <t>booking#&lt;bookingId&gt;</t>
   </si>
   <si>
@@ -447,9 +426,6 @@
     <t>user#&lt;userId&gt;</t>
   </si>
   <si>
-    <t>&lt;email&gt;</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -471,12 +447,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Insert booking#&lt;bookingId&gt;, Update appt#&lt;apptId&gt; status</t>
-  </si>
-  <si>
-    <t>Insert appt#&lt;apptId&gt;</t>
-  </si>
-  <si>
     <t>Cancel appointment</t>
   </si>
   <si>
@@ -487,6 +457,106 @@
   </si>
   <si>
     <t>appointmentId (gsi)</t>
+  </si>
+  <si>
+    <t>nicole@test.com</t>
+  </si>
+  <si>
+    <t>bach#eric</t>
+  </si>
+  <si>
+    <t>sartiano#nicole</t>
+  </si>
+  <si>
+    <t>email (gsi)</t>
+  </si>
+  <si>
+    <t>appointmentDateEpoch</t>
+  </si>
+  <si>
+    <t>bookingId (gsi)</t>
+  </si>
+  <si>
+    <t>327b9040-b65e-4839-90ee-decc733c46cb</t>
+  </si>
+  <si>
+    <t>4a2fe780-1820-4a72-add8-5d9038357ad3</t>
+  </si>
+  <si>
+    <t>customerId = customerId, SK &gt;= today</t>
+  </si>
+  <si>
+    <t>customerId = customerId, SK &lt; today</t>
+  </si>
+  <si>
+    <t>status = (booked or cancelled)</t>
+  </si>
+  <si>
+    <t>Insert booking#&lt;bookingId&gt;, Update appt status</t>
+  </si>
+  <si>
+    <t>Type-GSI</t>
+  </si>
+  <si>
+    <t>type = appt, SK = beginsWith(2023-03-06)</t>
+  </si>
+  <si>
+    <t>8ab867ec-d81a-47fa-a478-a0ed3ac35c37</t>
+  </si>
+  <si>
+    <t>367c8f20-334d-4654-a130-3c3accdf6c95</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date, bookingId</t>
+  </si>
+  <si>
+    <t>PK = appt#&lt;apptId&gt;, SK = &lt;date&gt;</t>
+  </si>
+  <si>
+    <t>PK APPT#TYPE
+SK DATE</t>
+  </si>
+  <si>
+    <t>GSI1</t>
+  </si>
+  <si>
+    <t>GSI2</t>
+  </si>
+  <si>
+    <t>PK BOOKING#CUSTOMERID
+SK DATE</t>
+  </si>
+  <si>
+    <t>PK APPT#APPTID
+PK BOOKING#BOOKINGID</t>
+  </si>
+  <si>
+    <t>PK BOOKING#BOOKINGID
+PK APPT#APPTID</t>
+  </si>
+  <si>
+    <t>Transact Write
+Update booking#&lt;bookingId&gt;, Update appt#&lt;apptId&gt; status</t>
+  </si>
+  <si>
+    <t>Transact Write
+Insert booking#&lt;bookingId&gt;, Update appt status</t>
+  </si>
+  <si>
+    <t>PK APPT#APPID
+SK DATE</t>
+  </si>
+  <si>
+    <t>Get upcoming bookings by customer</t>
+  </si>
+  <si>
+    <t>Get past bookings by customer</t>
+  </si>
+  <si>
+    <t>{ date, time, duration, type, category }</t>
   </si>
 </sst>
 </file>
@@ -577,7 +647,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -650,21 +720,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -675,20 +730,36 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1069,92 +1140,92 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1174,8 +1245,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>77</v>
+      <c r="B2" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1189,195 +1260,223 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DCE8DA-D16C-4C84-944E-A3A702C89F1E}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="6"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="4"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="6"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="R1" s="29"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="32" t="s">
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="D8" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1392,19 +1491,19 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="9.140625" style="6"/>
@@ -1412,18 +1511,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -1433,17 +1532,17 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1451,445 +1550,457 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>103</v>
+      <c r="A3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="5"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1834834734</v>
+      </c>
+      <c r="F4" s="12">
         <v>60</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="O4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>103</v>
+      <c r="A5" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="O5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="I6" s="1"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="O6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>104</v>
-      </c>
       <c r="C7" s="17" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="O7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1834834734</v>
+      </c>
+      <c r="F8" s="12">
         <v>60</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>104</v>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="D10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="O9" s="37"/>
-    </row>
-    <row r="10" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="O10" s="37"/>
-    </row>
-    <row r="11" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="O11" s="37"/>
-    </row>
-    <row r="12" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="38" t="s">
-        <v>16</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>102</v>
+        <v>127</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="O12" s="37"/>
+        <v>91</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>104</v>
-      </c>
       <c r="C13" s="17" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="1"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="O13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1834834734</v>
+      </c>
+      <c r="F14" s="12">
         <v>60</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="H14" s="14"/>
       <c r="I14" s="1"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="O14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>105</v>
+      <c r="A15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="1"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="O15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1834834734</v>
+      </c>
+      <c r="F16" s="12">
         <v>60</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="H16" s="14"/>
       <c r="I16" s="1"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>106</v>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="1"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1834834734</v>
+      </c>
+      <c r="F18" s="12">
         <v>60</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="1"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>108</v>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -1899,45 +2010,45 @@
       <c r="L19" s="4"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="F20" s="12">
         <v>7805555555</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="12"/>
       <c r="I20" s="1"/>
       <c r="K20" s="1"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>108</v>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -1947,224 +2058,239 @@
       <c r="L21" s="4"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="30"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="25" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="12">
+        <v>106</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="12">
         <v>7805555555</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="12"/>
       <c r="I22" s="1"/>
       <c r="K22" s="1"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="D25" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="F25" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="32" t="s">
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I32" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K32" s="8"/>
     </row>
@@ -2197,8 +2323,12 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{3518F584-5245-4DAA-B327-24A54F4E931B}"/>
+    <hyperlink ref="E22" r:id="rId2" xr:uid="{BE081043-F4B2-401E-8B2C-39C6459183CB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2207,7 +2337,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,23 +2362,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="10"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
@@ -2260,22 +2390,22 @@
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2285,20 +2415,20 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>14</v>
+      <c r="A3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>0</v>
@@ -2321,19 +2451,19 @@
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="12">
         <v>60</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -2351,32 +2481,32 @@
       <c r="V4" s="6"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>15</v>
+      <c r="A5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>0</v>
@@ -2393,31 +2523,31 @@
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="12">
         <v>60</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="I6" s="25">
         <v>7805555555</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -2431,20 +2561,20 @@
       <c r="V6" s="6"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>25</v>
+      <c r="A7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>0</v>
@@ -2465,19 +2595,19 @@
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="12">
         <v>60</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -2495,20 +2625,20 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>25</v>
+      <c r="A9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>0</v>
@@ -2529,19 +2659,19 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="12">
         <v>60</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -2559,20 +2689,20 @@
       <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>29</v>
+      <c r="A11" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>0</v>
@@ -2593,19 +2723,19 @@
       <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="12">
         <v>60</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -2623,20 +2753,20 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>28</v>
+      <c r="A13" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>0</v>
@@ -2657,19 +2787,19 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="12">
         <v>60</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -2687,8 +2817,8 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
@@ -2709,8 +2839,8 @@
       <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="23"/>
       <c r="D16" s="12"/>
       <c r="E16" s="16"/>
@@ -2733,142 +2863,142 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="20" t="s">
+      <c r="G19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>6</v>
-      </c>
       <c r="H19" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R25" s="8"/>
     </row>

--- a/Appointment Table.xlsx
+++ b/Appointment Table.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AMAABCA\eric-bach\schedular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\schedular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D391FC-6FB0-4BE8-BD26-8E9DDCDCB941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD3DDF-021E-4B78-A513-D74CF01C9D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="2955" windowWidth="29760" windowHeight="18210" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
+    <workbookView xWindow="645" yWindow="4095" windowWidth="27240" windowHeight="16380" activeTab="4" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="8" r:id="rId1"/>
     <sheet name="ERD" sheetId="9" r:id="rId2"/>
     <sheet name="Access Patterns" sheetId="10" r:id="rId3"/>
     <sheet name="Data Table" sheetId="11" r:id="rId4"/>
-    <sheet name="Data Table (ORIG)" sheetId="6" r:id="rId5"/>
+    <sheet name="Data Table (NEW)" sheetId="12" r:id="rId5"/>
+    <sheet name="Data Table (ORIG)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="171">
   <si>
     <t>updatedAt</t>
   </si>
@@ -372,12 +373,6 @@
     <t>Get appointments by date</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>CustomerId-GSI</t>
-  </si>
-  <si>
     <t>Mutation</t>
   </si>
   <si>
@@ -408,21 +403,6 @@
     <t>booking#&lt;bookingId&gt;</t>
   </si>
   <si>
-    <t>2e448993-b8a5-40ef-9a60-8f4cdeda7462</t>
-  </si>
-  <si>
-    <t>2023-03-06T08:00:00Z</t>
-  </si>
-  <si>
-    <t>2023-03-06T10:00:00Z</t>
-  </si>
-  <si>
-    <t>2023-03-08T08:00:00Z</t>
-  </si>
-  <si>
-    <t>2023-03-08T09:00:00Z</t>
-  </si>
-  <si>
     <t>user#&lt;userId&gt;</t>
   </si>
   <si>
@@ -453,9 +433,6 @@
     <t>/user/calendar</t>
   </si>
   <si>
-    <t>Update booking#&lt;bookingId&gt;, Update appt#&lt;apptId&gt; status</t>
-  </si>
-  <si>
     <t>appointmentId (gsi)</t>
   </si>
   <si>
@@ -471,49 +448,13 @@
     <t>email (gsi)</t>
   </si>
   <si>
-    <t>appointmentDateEpoch</t>
-  </si>
-  <si>
     <t>bookingId (gsi)</t>
   </si>
   <si>
-    <t>327b9040-b65e-4839-90ee-decc733c46cb</t>
-  </si>
-  <si>
-    <t>4a2fe780-1820-4a72-add8-5d9038357ad3</t>
-  </si>
-  <si>
-    <t>customerId = customerId, SK &gt;= today</t>
-  </si>
-  <si>
-    <t>customerId = customerId, SK &lt; today</t>
-  </si>
-  <si>
     <t>status = (booked or cancelled)</t>
   </si>
   <si>
-    <t>Insert booking#&lt;bookingId&gt;, Update appt status</t>
-  </si>
-  <si>
-    <t>Type-GSI</t>
-  </si>
-  <si>
-    <t>type = appt, SK = beginsWith(2023-03-06)</t>
-  </si>
-  <si>
-    <t>8ab867ec-d81a-47fa-a478-a0ed3ac35c37</t>
-  </si>
-  <si>
-    <t>367c8f20-334d-4654-a130-3c3accdf6c95</t>
-  </si>
-  <si>
     <t>category</t>
-  </si>
-  <si>
-    <t>date, bookingId</t>
-  </si>
-  <si>
-    <t>PK = appt#&lt;apptId&gt;, SK = &lt;date&gt;</t>
   </si>
   <si>
     <t>PK APPT#TYPE
@@ -557,6 +498,154 @@
   </si>
   <si>
     <t>{ date, time, duration, type, category }</t>
+  </si>
+  <si>
+    <t>date (gsi)</t>
+  </si>
+  <si>
+    <t>appt#2023-04-07</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>date = appt#2023-04-07</t>
+  </si>
+  <si>
+    <t>Sort By</t>
+  </si>
+  <si>
+    <t>time asc</t>
+  </si>
+  <si>
+    <t>ApptDate-GSI (date PK, time SK)</t>
+  </si>
+  <si>
+    <t>PK = appt#&lt;apptId&gt;, SK = &lt;epoch&gt;</t>
+  </si>
+  <si>
+    <t>PK = booking#&lt;bookingId&gt;, SK = &lt;epoch&gt;</t>
+  </si>
+  <si>
+    <t>Insert booking#&lt;bookingId&gt;
+Update appt#&lt;apptId&gt; status and bookingId</t>
+  </si>
+  <si>
+    <t>customerId = user#&lt;userId&gt;, SK &gt;= today</t>
+  </si>
+  <si>
+    <t>CustomerId-GSI (customerId PK, sk SK)</t>
+  </si>
+  <si>
+    <t>Get appointments by customer</t>
+  </si>
+  <si>
+    <t>{ appt }</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>appt#2023-04-10</t>
+  </si>
+  <si>
+    <t>appt#2023-04-12</t>
+  </si>
+  <si>
+    <t>PK = booking#&lt;bookingId&gt;
+PK = appt#&lt;apptId&gt;</t>
+  </si>
+  <si>
+    <t>bookingId
+apptId</t>
+  </si>
+  <si>
+    <t>Update booking#&lt;bookingId&gt;
+Update appt#&lt;apptId&gt; status</t>
+  </si>
+  <si>
+    <t>status = booked or cancelled</t>
+  </si>
+  <si>
+    <t>2023-04-07T08:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-07T09:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:00:00</t>
+  </si>
+  <si>
+    <t>appt#2023-04-13</t>
+  </si>
+  <si>
+    <t>2023-04-13T13:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:00:00</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>PK = appt#&lt;apptId&gt;, SK = &lt;datetime&gt;</t>
+  </si>
+  <si>
+    <t>sk asc</t>
+  </si>
+  <si>
+    <t>PK = booking#&lt;bookingId&gt;, SK = &lt;datetime&gt;</t>
+  </si>
+  <si>
+    <t>2023-04-07T08:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-04-07T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-04-13T13:00:00Z</t>
+  </si>
+  <si>
+    <t>{ sk, duration, type, category }</t>
+  </si>
+  <si>
+    <t>Get bookings by customer</t>
+  </si>
+  <si>
+    <t>Cancel booking</t>
+  </si>
+  <si>
+    <t>Create booking</t>
+  </si>
+  <si>
+    <t>createAppointment</t>
+  </si>
+  <si>
+    <t>getAvailableAppointments</t>
+  </si>
+  <si>
+    <t>getAppointments</t>
+  </si>
+  <si>
+    <t>createBooking</t>
+  </si>
+  <si>
+    <t>getBookings</t>
+  </si>
+  <si>
+    <t>cancelBooking</t>
+  </si>
+  <si>
+    <t>{ ...cust }</t>
+  </si>
+  <si>
+    <t>date-GSI (date PK, sk SK)</t>
   </si>
 </sst>
 </file>
@@ -647,7 +736,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -730,36 +819,86 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1263,7 +1402,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>37</v>
@@ -1328,10 +1467,10 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>131</v>
+        <v>112</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>55</v>
@@ -1352,14 +1491,14 @@
         <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>131</v>
+        <v>112</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>38</v>
@@ -1370,16 +1509,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>134</v>
+        <v>113</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="22" t="s">
@@ -1394,16 +1533,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>134</v>
+        <v>113</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="22" t="s">
@@ -1415,20 +1554,20 @@
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>139</v>
+      <c r="D6" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>38</v>
@@ -1436,7 +1575,7 @@
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>43</v>
@@ -1444,11 +1583,11 @@
       <c r="C7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>138</v>
+      <c r="D7" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>118</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>40</v>
@@ -1459,22 +1598,22 @@
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>137</v>
+      <c r="D8" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>117</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>39</v>
@@ -1488,33 +1627,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D340C2-BCD5-471C-9884-CF387E4104B2}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="47"/>
+    <col min="12" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
@@ -1530,11 +1669,11 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="35"/>
@@ -1550,768 +1689,1660 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1834834000</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="25">
+        <v>60</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1834834000</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="46"/>
+      <c r="N5" s="47"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="N6" s="47"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1834985000</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="25">
+        <v>60</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1834985000</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="O9" s="49"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="O10" s="49"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1834985000</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="O11" s="49"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="O12" s="49"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1835681000</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="N13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="25">
+        <v>60</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1843458000</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="N15" s="47"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="25">
+        <v>60</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="N16" s="47"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="32">
+        <v>1846234000</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="N17" s="47"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="25">
+        <v>60</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="N18" s="47"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1834834734</v>
-      </c>
-      <c r="F4" s="12">
-        <v>60</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1834834734</v>
-      </c>
-      <c r="F8" s="12">
-        <v>60</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1834834734</v>
-      </c>
-      <c r="F14" s="12">
-        <v>60</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1834834734</v>
-      </c>
-      <c r="F16" s="12">
-        <v>60</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1834834734</v>
-      </c>
-      <c r="F18" s="12">
-        <v>60</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="N19" s="6"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="25">
+        <v>7805555555</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="N20" s="47"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="N21" s="47"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="12">
+      <c r="F22" s="25">
         <v>7805555555</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="N22" s="47"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="51"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="17" t="s">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="46"/>
+      <c r="K26" s="48"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="48"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="48"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="48"/>
+    </row>
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="C32" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="12">
-        <v>7805555555</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D23"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="I32" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="K33" s="48"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="K33" s="8"/>
+      <c r="B34" s="56">
+        <v>0.375</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{3518F584-5245-4DAA-B327-24A54F4E931B}"/>
+    <hyperlink ref="E22" r:id="rId2" xr:uid="{BE081043-F4B2-401E-8B2C-39C6459183CB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E548137-E7BE-486B-96A5-865A1089DC79}">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="25">
+        <v>60</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="46"/>
+      <c r="O5" s="47"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="46"/>
+      <c r="O6" s="47"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="N7" s="47"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="25">
+        <v>60</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="N8" s="48"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="P9" s="49"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="P10" s="49"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="P11" s="49"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="P12" s="49"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="25">
+        <v>60</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="O14" s="47"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="O15" s="47"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="25">
+        <v>60</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="O16" s="47"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="O17" s="47"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="25">
+        <v>60</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="O18" s="47"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="O19" s="47"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="25">
+        <v>7805555555</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="O20" s="47"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="O21" s="47"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="25">
+        <v>7805555555</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="O22" s="47"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="51"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="46"/>
+    </row>
+    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -2324,15 +3355,15 @@
     <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{3518F584-5245-4DAA-B327-24A54F4E931B}"/>
-    <hyperlink ref="E22" r:id="rId2" xr:uid="{BE081043-F4B2-401E-8B2C-39C6459183CB}"/>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{B610ACA8-BB27-4EB4-9FA5-FD775FD9DEC9}"/>
+    <hyperlink ref="E22" r:id="rId2" xr:uid="{D6AE84B0-9F36-4DC5-9493-3EEB623B1E10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A27AE42-FA0B-4E9C-8C88-B2A236682FE1}">
   <dimension ref="A1:V27"/>
   <sheetViews>
@@ -2415,10 +3446,10 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -2451,8 +3482,8 @@
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2481,10 +3512,10 @@
       <c r="V4" s="6"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2523,8 +3554,8 @@
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="23" t="s">
         <v>8</v>
       </c>
@@ -2561,10 +3592,10 @@
       <c r="V6" s="6"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -2595,8 +3626,8 @@
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2625,10 +3656,10 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2659,8 +3690,8 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="23" t="s">
         <v>8</v>
       </c>
@@ -2689,10 +3720,10 @@
       <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -2723,8 +3754,8 @@
       <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="23" t="s">
         <v>26</v>
       </c>
@@ -2753,10 +3784,10 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -2787,8 +3818,8 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="23" t="s">
         <v>8</v>
       </c>
@@ -2817,8 +3848,8 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
@@ -2839,8 +3870,8 @@
       <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="23"/>
       <c r="D16" s="12"/>
       <c r="E16" s="16"/>
@@ -2865,10 +3896,10 @@
       <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="38"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="20" t="s">
         <v>7</v>
       </c>
@@ -3012,6 +4043,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3023,12 +4060,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{1A4FD1EF-5805-490F-819A-067DAE9DA836}"/>

--- a/Appointment Table.xlsx
+++ b/Appointment Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\schedular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AMAABCA\eric-bach\schedular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA43DAC0-A5CF-4F96-92C5-342BF9C5D529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3889B47-A7FF-49F2-9E31-E442DFBA3778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="4095" windowWidth="27240" windowHeight="16380" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
+    <workbookView xWindow="3000" yWindow="4020" windowWidth="26370" windowHeight="15285" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
   <si>
     <t>Attributes</t>
   </si>
@@ -508,6 +508,9 @@
   <si>
     <t>userId
 datetime</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
 </sst>
 </file>
@@ -637,68 +640,68 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1430,38 +1433,38 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="25.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1469,19 +1472,19 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1489,40 +1492,40 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1535,7 @@
       <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="7">
@@ -1544,43 +1547,43 @@
       <c r="I4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="N4" s="25"/>
+      <c r="L4" s="22"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="25"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="22"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1599,42 +1602,42 @@
       <c r="H6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="24"/>
-      <c r="O6" s="25"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="N7" s="25"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1644,54 +1647,54 @@
       <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>90</v>
       </c>
       <c r="G8" s="7">
         <v>60</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="N8" s="26"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="P9" s="27"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>91</v>
@@ -1708,48 +1711,48 @@
       <c r="H10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="P10" s="27"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="P11" s="27"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="P11" s="25"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1768,44 +1771,44 @@
       <c r="H12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="P12" s="27"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="O13" s="26"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1815,49 +1818,49 @@
       <c r="E14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>96</v>
       </c>
       <c r="G14" s="7">
         <v>60</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="O14" s="25"/>
+      <c r="I14" s="20"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="O15" s="25"/>
+      <c r="I15" s="20"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1867,49 +1870,49 @@
       <c r="E16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>97</v>
       </c>
       <c r="G16" s="7">
         <v>60</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="O16" s="25"/>
+      <c r="I16" s="20"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="O17" s="25"/>
+      <c r="I17" s="20"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="O17" s="23"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1919,328 +1922,340 @@
       <c r="E18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>100</v>
       </c>
       <c r="G18" s="7">
         <v>60</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="O18" s="25"/>
+      <c r="I18" s="20"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="O18" s="23"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="O19" s="25"/>
+      <c r="I19" s="20"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="7">
         <v>7805555555</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="O20" s="25"/>
+      <c r="I20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="O20" s="23"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="O21" s="25"/>
+      <c r="I21" s="20"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="O21" s="23"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="7">
         <v>7805555555</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="O22" s="25"/>
+      <c r="I22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="O22" s="23"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="29"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="28" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31" t="s">
+      <c r="H26" s="29"/>
+      <c r="I26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="24"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="24"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="24"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31" t="s">
+      <c r="H29" s="29"/>
+      <c r="I29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="24"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31" t="s">
+      <c r="H31" s="29"/>
+      <c r="I31" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="K32" s="26"/>
+      <c r="A32" s="29"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
+      <c r="B33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A21:A22"/>
@@ -2251,18 +2266,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E20" r:id="rId1" xr:uid="{B610ACA8-BB27-4EB4-9FA5-FD775FD9DEC9}"/>

--- a/Appointment Table.xlsx
+++ b/Appointment Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AMAABCA\eric-bach\schedular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\schedular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3889B47-A7FF-49F2-9E31-E442DFBA3778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04E1BD8-06C1-4C1E-B5F3-C897D5A22162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="4020" windowWidth="26370" windowHeight="15285" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="27090" windowHeight="17490" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="120">
   <si>
     <t>Attributes</t>
   </si>
@@ -134,12 +134,6 @@
     <t>customerId (gsi)</t>
   </si>
   <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>eric@test.com</t>
-  </si>
-  <si>
     <t>Get available appointments by date</t>
   </si>
   <si>
@@ -314,15 +308,6 @@
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>Bach</t>
-  </si>
-  <si>
-    <t>Nicole</t>
-  </si>
-  <si>
-    <t>Sartiano</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -333,15 +318,6 @@
   </si>
   <si>
     <t>appointmentId (gsi)</t>
-  </si>
-  <si>
-    <t>nicole@test.com</t>
-  </si>
-  <si>
-    <t>bach#eric</t>
-  </si>
-  <si>
-    <t>sartiano#nicole</t>
   </si>
   <si>
     <t>email (gsi)</t>
@@ -396,16 +372,7 @@
     <t>Get past bookings by customer</t>
   </si>
   <si>
-    <t>date (gsi)</t>
-  </si>
-  <si>
-    <t>appt#2023-04-07</t>
-  </si>
-  <si>
     <t>booking</t>
-  </si>
-  <si>
-    <t>date = appt#2023-04-07</t>
   </si>
   <si>
     <t>Sort By</t>
@@ -418,12 +385,6 @@
     <t>customerId = user#&lt;userId&gt;, SK &gt;= today</t>
   </si>
   <si>
-    <t>appt#2023-04-10</t>
-  </si>
-  <si>
-    <t>appt#2023-04-12</t>
-  </si>
-  <si>
     <t>PK = booking#&lt;bookingId&gt;
 PK = appt#&lt;apptId&gt;</t>
   </si>
@@ -432,9 +393,6 @@
 Update appt#&lt;apptId&gt; status</t>
   </si>
   <si>
-    <t>appt#2023-04-13</t>
-  </si>
-  <si>
     <t>PK = appt#&lt;apptId&gt;, SK = &lt;datetime&gt;</t>
   </si>
   <si>
@@ -454,9 +412,6 @@
   </si>
   <si>
     <t>2023-04-13T13:00:00Z</t>
-  </si>
-  <si>
-    <t>{ sk, duration, type, category }</t>
   </si>
   <si>
     <t>Get bookings by customer</t>
@@ -496,10 +451,6 @@
 sk SK</t>
   </si>
   <si>
-    <t>date PK
-sk SK</t>
-  </si>
-  <si>
     <t>deafult</t>
   </si>
   <si>
@@ -511,6 +462,37 @@
   </si>
   <si>
     <t>cancelled</t>
+  </si>
+  <si>
+    <t>{ pk, sk, duration, type, category }</t>
+  </si>
+  <si>
+    <t>smith#john</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>john@test.com</t>
+  </si>
+  <si>
+    <t>smith#jane</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>jane@test.com</t>
+  </si>
+  <si>
+    <t>type PK
+sk SK</t>
+  </si>
+  <si>
+    <t>type = appt, SK between &lt;date1&gt; and &lt;date2&gt;</t>
   </si>
 </sst>
 </file>
@@ -601,7 +583,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -661,9 +643,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -697,10 +676,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,92 +1061,92 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1167,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1241,16 +1220,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>17</v>
@@ -1267,16 +1246,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="6" t="s">
@@ -1291,17 +1270,17 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -1312,20 +1291,20 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>19</v>
@@ -1336,16 +1315,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="6" t="s">
@@ -1357,20 +1336,20 @@
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>18</v>
@@ -1378,19 +1357,19 @@
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
@@ -1401,22 +1380,22 @@
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -1433,7 +1412,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,28 +1422,27 @@
     <col min="3" max="3" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1479,12 +1457,12 @@
       <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1493,10 +1471,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>11</v>
@@ -1505,19 +1483,16 @@
         <v>14</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="18"/>
@@ -1535,27 +1510,24 @@
       <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="7">
         <v>60</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="N4" s="23"/>
+        <v>103</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>11</v>
@@ -1564,22 +1536,22 @@
         <v>14</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="22"/>
-      <c r="O5" s="23"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="21"/>
+      <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
@@ -1588,32 +1560,32 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="22"/>
+        <v>103</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="22"/>
-      <c r="O6" s="23"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>11</v>
@@ -1622,18 +1594,15 @@
         <v>14</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="N7" s="23"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
@@ -1647,23 +1616,20 @@
       <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="7">
         <v>60</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="N8" s="24"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>11</v>
@@ -1672,58 +1638,58 @@
         <v>14</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="J9" s="21"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="P9" s="25"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" s="22"/>
+        <v>103</v>
+      </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="P10" s="25"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>11</v>
@@ -1732,23 +1698,23 @@
         <v>14</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="J11" s="21"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="P11" s="25"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
@@ -1757,33 +1723,33 @@
         <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="22"/>
+        <v>103</v>
+      </c>
+      <c r="J12" s="21"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="P12" s="25"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>11</v>
@@ -1792,19 +1758,16 @@
         <v>14</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="20"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="O13" s="24"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
@@ -1818,24 +1781,21 @@
       <c r="E14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="7">
         <v>60</v>
       </c>
       <c r="I14" s="20"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="O14" s="23"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>11</v>
@@ -1844,19 +1804,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="20"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="O15" s="23"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
@@ -1870,24 +1827,21 @@
       <c r="E16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="7">
         <v>60</v>
       </c>
       <c r="I16" s="20"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="O16" s="23"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>11</v>
@@ -1896,19 +1850,16 @@
         <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="20"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="O17" s="23"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
@@ -1922,340 +1873,325 @@
       <c r="E18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="7">
         <v>60</v>
       </c>
       <c r="I18" s="20"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="O18" s="23"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="E19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="I19" s="20"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="O19" s="23"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="O19" s="22"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>25</v>
+        <v>113</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="F20" s="7">
         <v>7805555555</v>
       </c>
       <c r="I20" s="20"/>
       <c r="K20" s="20"/>
-      <c r="O20" s="23"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="E21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="I21" s="20"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="O21" s="23"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="7" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="F22" s="7">
-        <v>7805555555</v>
+        <v>7808888888</v>
       </c>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
-      <c r="O22" s="23"/>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="27"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="28" t="s">
+      <c r="C25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="28" t="s">
+      <c r="H25" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="28" t="s">
-        <v>67</v>
+      <c r="K25" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29" t="s">
-        <v>55</v>
+        <v>87</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="J26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="22"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>121</v>
+        <v>46</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="28" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="22"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>121</v>
+        <v>46</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>54</v>
+        <v>119</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="30" t="s">
-        <v>94</v>
+      <c r="K29" s="29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>120</v>
+        <v>45</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>28</v>
+        <v>104</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="J30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="22"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29" t="s">
-        <v>69</v>
+        <v>47</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="30" t="s">
-        <v>99</v>
+      <c r="K31" s="29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="K32" s="24"/>
+      <c r="A32" s="28"/>
+      <c r="K32" s="23"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
+      <c r="B33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A21:A22"/>
@@ -2266,6 +2202,18 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E20" r:id="rId1" xr:uid="{B610ACA8-BB27-4EB4-9FA5-FD775FD9DEC9}"/>

--- a/Appointment Table.xlsx
+++ b/Appointment Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\schedular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04E1BD8-06C1-4C1E-B5F3-C897D5A22162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6104B-DB44-46BE-8503-67E26EEFACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="27090" windowHeight="17490" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
+    <workbookView xWindow="330" yWindow="4020" windowWidth="27990" windowHeight="16710" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="119">
   <si>
     <t>Attributes</t>
   </si>
@@ -317,13 +317,7 @@
     <t>/user/calendar</t>
   </si>
   <si>
-    <t>appointmentId (gsi)</t>
-  </si>
-  <si>
     <t>email (gsi)</t>
-  </si>
-  <si>
-    <t>bookingId (gsi)</t>
   </si>
   <si>
     <t>status = (booked or cancelled)</t>
@@ -464,9 +458,6 @@
     <t>cancelled</t>
   </si>
   <si>
-    <t>{ pk, sk, duration, type, category }</t>
-  </si>
-  <si>
     <t>smith#john</t>
   </si>
   <si>
@@ -493,6 +484,12 @@
   </si>
   <si>
     <t>type = appt, SK between &lt;date1&gt; and &lt;date2&gt;</t>
+  </si>
+  <si>
+    <t>bookingId</t>
+  </si>
+  <si>
+    <t>{ pk, sk, status, type, category, duration }</t>
   </si>
 </sst>
 </file>
@@ -534,7 +531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +586,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -676,11 +679,17 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1249,10 +1258,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
@@ -1273,10 +1282,10 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="6" t="s">
@@ -1291,16 +1300,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6" t="s">
@@ -1315,16 +1324,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="6" t="s">
@@ -1345,7 +1354,7 @@
         <v>47</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="6" t="s">
@@ -1366,10 +1375,10 @@
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
@@ -1389,10 +1398,10 @@
         <v>47</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>64</v>
@@ -1412,7 +1421,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,9 +1430,10 @@
     <col min="2" max="2" width="33.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.28515625" style="22" bestFit="1" customWidth="1"/>
@@ -1431,18 +1441,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1457,12 +1467,12 @@
       <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1470,11 +1480,11 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>89</v>
+      <c r="B3" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>11</v>
@@ -1483,13 +1493,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>67</v>
+      <c r="G3" s="34" t="s">
+        <v>117</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>54</v>
@@ -1499,8 +1509,8 @@
       <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1513,21 +1523,21 @@
       <c r="F4" s="7">
         <v>60</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="35" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L4" s="21"/>
       <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>89</v>
+      <c r="B5" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>11</v>
@@ -1536,15 +1546,12 @@
         <v>14</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="16" t="s">
         <v>54</v>
       </c>
       <c r="J5" s="21"/>
@@ -1554,25 +1561,22 @@
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="20"/>
@@ -1581,11 +1585,11 @@
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>90</v>
+      <c r="B7" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>11</v>
@@ -1594,7 +1598,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>10</v>
@@ -1605,8 +1609,8 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1625,11 +1629,11 @@
       <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>90</v>
+      <c r="B9" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>11</v>
@@ -1638,15 +1642,12 @@
         <v>14</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="J9" s="21"/>
@@ -1657,25 +1658,22 @@
       <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="20"/>
@@ -1685,11 +1683,11 @@
       <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>90</v>
+      <c r="B11" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>11</v>
@@ -1698,15 +1696,12 @@
         <v>14</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="16" t="s">
         <v>54</v>
       </c>
       <c r="J11" s="21"/>
@@ -1717,25 +1712,22 @@
       <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="20"/>
@@ -1745,11 +1737,11 @@
       <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>91</v>
+      <c r="B13" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>11</v>
@@ -1758,7 +1750,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>10</v>
@@ -1770,8 +1762,8 @@
       <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1791,11 +1783,11 @@
       <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>92</v>
+      <c r="B15" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>11</v>
@@ -1804,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>10</v>
@@ -1816,8 +1808,8 @@
       <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1837,11 +1829,11 @@
       <c r="O16" s="22"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>93</v>
+      <c r="B17" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>11</v>
@@ -1850,7 +1842,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>10</v>
@@ -1862,8 +1854,8 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1883,11 +1875,11 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>111</v>
+      <c r="B19" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>59</v>
@@ -1896,7 +1888,7 @@
         <v>60</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>61</v>
@@ -1908,16 +1900,16 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7">
         <v>7805555555</v>
@@ -1927,11 +1919,11 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>115</v>
+      <c r="B21" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>59</v>
@@ -1940,7 +1932,7 @@
         <v>60</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>61</v>
@@ -1952,16 +1944,16 @@
       <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7">
         <v>7808888888</v>
@@ -1996,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I25" s="27" t="s">
         <v>51</v>
@@ -2010,7 +2002,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>50</v>
@@ -2022,7 +2014,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28" t="s">
@@ -2035,7 +2027,7 @@
     </row>
     <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -2047,16 +2039,16 @@
         <v>46</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>13</v>
@@ -2068,7 +2060,7 @@
     </row>
     <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>48</v>
@@ -2080,13 +2072,13 @@
         <v>46</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>52</v>
@@ -2098,10 +2090,10 @@
     </row>
     <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>49</v>
@@ -2110,7 +2102,7 @@
         <v>47</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28" t="s">
@@ -2120,33 +2112,33 @@
         <v>19</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>107</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>26</v>
@@ -2158,10 +2150,10 @@
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>49</v>
@@ -2170,7 +2162,7 @@
         <v>47</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="28" t="s">
@@ -2180,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2192,6 +2184,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A21:A22"/>
@@ -2202,18 +2206,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E20" r:id="rId1" xr:uid="{B610ACA8-BB27-4EB4-9FA5-FD775FD9DEC9}"/>

--- a/Appointment Table.xlsx
+++ b/Appointment Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\schedular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6104B-DB44-46BE-8503-67E26EEFACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2289A439-76BF-4736-850D-3D577CF5A13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="4020" windowWidth="27990" windowHeight="16710" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="125">
   <si>
     <t>Attributes</t>
   </si>
@@ -490,6 +490,24 @@
   </si>
   <si>
     <t>{ pk, sk, status, type, category, duration }</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; booked appointment</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; available appointment</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; cancelled booking</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; confirmed booking</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; rebooked appointment</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; user</t>
   </si>
 </sst>
 </file>
@@ -531,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,7 +570,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +622,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -685,11 +721,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1421,7 +1475,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1487,7 @@
     <col min="5" max="5" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.28515625" style="22" bestFit="1" customWidth="1"/>
@@ -1498,11 +1552,14 @@
       <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="16" t="s">
         <v>117</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>54</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="18"/>
@@ -1523,12 +1580,13 @@
       <c r="F4" s="7">
         <v>60</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="I4" s="35"/>
       <c r="L4" s="21"/>
       <c r="N4" s="22"/>
     </row>
@@ -1553,6 +1611,9 @@
       </c>
       <c r="G5" s="16" t="s">
         <v>54</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="20"/>
@@ -1578,6 +1639,7 @@
       <c r="G6" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="I6" s="35"/>
       <c r="J6" s="21"/>
       <c r="K6" s="20"/>
       <c r="L6" s="22"/>
@@ -1589,7 +1651,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>11</v>
@@ -1603,10 +1665,13 @@
       <c r="F7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="I7" s="38" t="s">
+        <v>120</v>
+      </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
-      <c r="N7" s="22"/>
+      <c r="M7" s="21"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
@@ -1623,17 +1688,18 @@
       <c r="F8" s="7">
         <v>60</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="I8" s="39"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
-      <c r="N8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>11</v>
@@ -1642,49 +1708,43 @@
         <v>14</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="P9" s="24"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7">
+        <v>60</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="P10" s="24"/>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>88</v>
@@ -1696,20 +1756,24 @@
         <v>14</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>54</v>
       </c>
+      <c r="I11" s="34" t="s">
+        <v>123</v>
+      </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="P11" s="24"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
@@ -1717,31 +1781,33 @@
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7">
+        <v>60</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="I12" s="35"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="P12" s="24"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>11</v>
@@ -1750,44 +1816,56 @@
         <v>14</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="K13" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="21"/>
+      <c r="P13" s="24"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7">
-        <v>60</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="K14" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="O14" s="22"/>
+      <c r="N14" s="21"/>
+      <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>11</v>
@@ -1796,37 +1874,49 @@
         <v>14</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="K15" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="O15" s="22"/>
+      <c r="N15" s="21"/>
+      <c r="P15" s="24"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7">
-        <v>60</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="K16" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
-      <c r="O16" s="22"/>
+      <c r="N16" s="21"/>
+      <c r="P16" s="24"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
@@ -1847,7 +1937,9 @@
       <c r="F17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="38" t="s">
+        <v>120</v>
+      </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
@@ -1868,7 +1960,7 @@
       <c r="F18" s="7">
         <v>60</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="39"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -1893,7 +1985,9 @@
       <c r="F19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -1914,7 +2008,7 @@
       <c r="F20" s="7">
         <v>7805555555</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="40"/>
       <c r="K20" s="20"/>
       <c r="O20" s="22"/>
     </row>
@@ -1937,7 +2031,9 @@
       <c r="F21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
@@ -1958,7 +2054,7 @@
       <c r="F22" s="7">
         <v>7808888888</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="41"/>
       <c r="K22" s="20"/>
       <c r="O22" s="22"/>
     </row>
@@ -2190,20 +2286,20 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
   </mergeCells>

--- a/Appointment Table.xlsx
+++ b/Appointment Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\schedular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2289A439-76BF-4736-850D-3D577CF5A13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07226B84-77EA-4F49-821E-DBBE130B0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="4020" windowWidth="27990" windowHeight="16710" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
+    <workbookView xWindow="1680" yWindow="3750" windowWidth="27990" windowHeight="16710" activeTab="3" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="128">
   <si>
     <t>Attributes</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>Read</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -508,6 +505,18 @@
   </si>
   <si>
     <t>&lt;&lt;&lt; user</t>
+  </si>
+  <si>
+    <t>getBooking</t>
+  </si>
+  <si>
+    <t>Get a booking by Id</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>PK = pk</t>
   </si>
 </sst>
 </file>
@@ -715,34 +724,34 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1289,10 +1298,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>17</v>
@@ -1312,10 +1321,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
@@ -1333,17 +1342,17 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -1354,16 +1363,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6" t="s">
@@ -1378,16 +1387,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="6" t="s">
@@ -1399,20 +1408,20 @@
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>18</v>
@@ -1420,19 +1429,19 @@
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
@@ -1443,22 +1452,22 @@
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -1475,7 +1484,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,18 +1504,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1521,12 +1530,12 @@
       <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1534,11 +1543,11 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>87</v>
+      <c r="A3" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>86</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>11</v>
@@ -1547,27 +1556,27 @@
         <v>14</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>119</v>
+        <v>53</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="18"/>
       <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1581,21 +1590,21 @@
         <v>60</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="I4" s="33"/>
       <c r="L4" s="21"/>
       <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>87</v>
+      <c r="A5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>11</v>
@@ -1607,13 +1616,13 @@
         <v>23</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>122</v>
+        <v>53</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>121</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="20"/>
@@ -1622,24 +1631,24 @@
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="I6" s="33"/>
       <c r="J6" s="21"/>
       <c r="K6" s="20"/>
       <c r="L6" s="22"/>
@@ -1647,11 +1656,11 @@
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>89</v>
+      <c r="A7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>11</v>
@@ -1660,13 +1669,13 @@
         <v>14</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>120</v>
+      <c r="I7" s="36" t="s">
+        <v>119</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
@@ -1674,8 +1683,8 @@
       <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1688,18 +1697,18 @@
       <c r="F8" s="7">
         <v>60</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="37"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>90</v>
+      <c r="A9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>89</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>11</v>
@@ -1708,13 +1717,13 @@
         <v>14</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>120</v>
+      <c r="I9" s="36" t="s">
+        <v>119</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -1722,8 +1731,8 @@
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1736,18 +1745,18 @@
       <c r="F10" s="7">
         <v>60</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="37"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>88</v>
+      <c r="A11" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>11</v>
@@ -1756,19 +1765,19 @@
         <v>14</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>123</v>
+        <v>53</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -1776,8 +1785,8 @@
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1791,23 +1800,23 @@
         <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="33"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="N12" s="23"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>88</v>
+      <c r="A13" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>11</v>
@@ -1819,13 +1828,13 @@
         <v>23</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>121</v>
+        <v>53</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="20"/>
@@ -1835,24 +1844,24 @@
       <c r="P13" s="24"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="37"/>
+        <v>100</v>
+      </c>
+      <c r="I14" s="35"/>
       <c r="J14" s="21"/>
       <c r="K14" s="20"/>
       <c r="L14" s="21"/>
@@ -1861,11 +1870,11 @@
       <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>88</v>
+      <c r="A15" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>11</v>
@@ -1877,13 +1886,13 @@
         <v>23</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>122</v>
+        <v>53</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>121</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="20"/>
@@ -1893,24 +1902,24 @@
       <c r="P15" s="24"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="I16" s="33"/>
       <c r="J16" s="21"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21"/>
@@ -1919,11 +1928,11 @@
       <c r="P16" s="24"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>91</v>
+      <c r="A17" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>11</v>
@@ -1932,13 +1941,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="38" t="s">
-        <v>120</v>
+      <c r="I17" s="36" t="s">
+        <v>119</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -1946,8 +1955,8 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1960,33 +1969,33 @@
       <c r="F18" s="7">
         <v>60</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="37"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>124</v>
+      <c r="I19" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -1994,45 +2003,45 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="F20" s="7">
         <v>7805555555</v>
       </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="38"/>
       <c r="K20" s="20"/>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>124</v>
+      <c r="I21" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
@@ -2040,21 +2049,21 @@
       <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>114</v>
       </c>
       <c r="F22" s="7">
         <v>7808888888</v>
       </c>
-      <c r="I22" s="41"/>
+      <c r="I22" s="39"/>
       <c r="K22" s="20"/>
       <c r="O22" s="22"/>
     </row>
@@ -2084,37 +2093,37 @@
         <v>4</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" s="27" t="s">
         <v>17</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" s="20" t="s">
         <v>18</v>
@@ -2123,28 +2132,28 @@
     </row>
     <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="E27" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>115</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>116</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>13</v>
@@ -2156,28 +2165,28 @@
     </row>
     <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="E28" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>116</v>
-      </c>
       <c r="H28" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>18</v>
@@ -2186,19 +2195,19 @@
     </row>
     <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28" t="s">
@@ -2208,90 +2217,97 @@
         <v>19</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="J30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>100</v>
+      <c r="A31" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="I31" s="28" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="K32" s="23"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A21:A22"/>
@@ -2302,6 +2318,18 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E20" r:id="rId1" xr:uid="{B610ACA8-BB27-4EB4-9FA5-FD775FD9DEC9}"/>
